--- a/Recipes.xlsx
+++ b/Recipes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Medicinal-Recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A78AF738-817A-456F-B701-DC609C4693F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B503E45-41E9-4E14-B590-66A1F513471F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="669" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="669" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="How to use the Recipe Tracker" sheetId="19" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="83">
   <si>
     <t>Recipe Categories</t>
   </si>
@@ -779,6 +779,9 @@
   <si>
     <t>Filter data in an Excel table</t>
   </si>
+  <si>
+    <t>Digestion</t>
+  </si>
 </sst>
 </file>
 
@@ -1310,9 +1313,6 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -1322,20 +1322,11 @@
     <xf numFmtId="166" fontId="20" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="7">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="166" fontId="20" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
@@ -1355,26 +1346,20 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="7" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="7">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1384,6 +1369,24 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -25359,161 +25362,161 @@
         <v>40</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
     </row>
     <row r="4" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="33"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
     </row>
     <row r="5" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="62" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="34"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
     </row>
     <row r="6" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="34"/>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
     </row>
     <row r="7" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="50"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="34"/>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
       <c r="N7" s="36"/>
     </row>
     <row r="8" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="34"/>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
       <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="34"/>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
       <c r="N9" s="36"/>
     </row>
     <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="34"/>
       <c r="D10" s="37">
         <v>1</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
       <c r="N10" s="36"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
-      <c r="B11" s="50"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="34"/>
       <c r="D11" s="37">
         <v>2</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
       <c r="N11" s="36"/>
     </row>
     <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="33"/>
       <c r="D12" s="37">
         <v>3</v>
@@ -25535,17 +25538,17 @@
       <c r="B13" s="5"/>
       <c r="C13" s="33"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
       <c r="N13" s="36"/>
     </row>
     <row r="14" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25554,17 +25557,17 @@
       <c r="D14" s="37">
         <v>4</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
       <c r="N14" s="36"/>
     </row>
     <row r="15" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25573,17 +25576,17 @@
       <c r="D15" s="37">
         <v>5</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
       <c r="N15" s="36"/>
     </row>
     <row r="16" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25592,51 +25595,51 @@
       <c r="D16" s="37">
         <v>6</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
       <c r="N16" s="36"/>
     </row>
     <row r="17" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="33"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
       <c r="N17" s="36"/>
     </row>
     <row r="18" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="33"/>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
       <c r="N18" s="11"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
@@ -25660,17 +25663,17 @@
       <c r="D20" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
       <c r="N20" s="36"/>
     </row>
     <row r="21" spans="2:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25679,80 +25682,80 @@
       <c r="D21" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
       <c r="N21" s="36"/>
     </row>
     <row r="22" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="33"/>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
     </row>
     <row r="23" spans="2:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="33"/>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
       <c r="N23" s="36"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="33"/>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
       <c r="N24" s="36"/>
     </row>
     <row r="25" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="33"/>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
       <c r="I25" s="47"/>
       <c r="J25" s="47"/>
       <c r="K25" s="47"/>
@@ -25762,15 +25765,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="D22:N22"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="E17:M17"/>
     <mergeCell ref="B5:B12"/>
     <mergeCell ref="E15:M15"/>
     <mergeCell ref="D9:M9"/>
@@ -25782,6 +25776,15 @@
     <mergeCell ref="D6:N6"/>
     <mergeCell ref="D3:N5"/>
     <mergeCell ref="E13:M13"/>
+    <mergeCell ref="E16:M16"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="D22:N22"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="E17:M17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D25" r:id="rId1" tooltip="Click to view more on filtering" display="Filter data in a range or table" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -25936,9 +25939,9 @@
         <f>IF(RecipeTOC[[#This Row],[RATING]]&lt;&gt;"",VALUE(LEFT(RecipeTOC[[#This Row],[RATING]],1)),"")</f>
         <v/>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="20" t="str">
         <f ca="1">IFERROR(INDIRECT("'"&amp;RecipeTOC[[#This Row],[RECIPE NAME]]&amp;"'!Category"),"")</f>
-        <v>0</v>
+        <v>Digestion</v>
       </c>
       <c r="I5" s="21">
         <f ca="1">IFERROR(INDIRECT("'"&amp;RecipeTOC[[#This Row],[RECIPE NAME]]&amp;"'!Tags"),"")</f>
@@ -26300,7 +26303,7 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -26318,14 +26321,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="str">
+      <c r="A1" s="66" t="str">
         <f>"Recipe: "&amp;RecipeName</f>
         <v>Recipe: Spinach Feta Pizza</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -26345,18 +26348,18 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="74"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="28" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
     </row>
@@ -26383,10 +26386,10 @@
       <c r="E7" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="66"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="45"/>
       <c r="I7" s="1"/>
     </row>
@@ -26394,8 +26397,8 @@
       <c r="E8" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="45"/>
       <c r="I8" s="1"/>
     </row>
@@ -26403,16 +26406,16 @@
       <c r="E9" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
       <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="45"/>
       <c r="I10" s="65" t="s">
         <v>37</v>
@@ -26422,8 +26425,8 @@
       <c r="E11" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="45"/>
       <c r="I11" s="65"/>
     </row>
@@ -26431,8 +26434,8 @@
       <c r="E12" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="45"/>
       <c r="I12" s="1"/>
     </row>
@@ -26440,8 +26443,8 @@
       <c r="E13" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="45"/>
       <c r="I13" s="1"/>
     </row>
@@ -26449,8 +26452,8 @@
       <c r="E14" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="45"/>
       <c r="I14" s="1"/>
     </row>
@@ -26458,8 +26461,8 @@
       <c r="E15" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
       <c r="H15" s="45"/>
       <c r="I15" s="1"/>
     </row>
@@ -26472,8 +26475,8 @@
       <c r="E16" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="45"/>
       <c r="I16" s="1"/>
     </row>
@@ -26484,108 +26487,108 @@
       <c r="E17" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="45"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
-      <c r="C18" s="68">
+      <c r="C18" s="70">
         <v>10</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="69" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="45"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="71"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="45"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="70">
+      <c r="C20" s="74">
         <v>16</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="73" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="42"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="45"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="69"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="42"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="45"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
-      <c r="C22" s="68">
+      <c r="C22" s="70">
         <v>401</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="69" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="42"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="45"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="26"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="71"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="42"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="45"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="26"/>
-      <c r="C24" s="70">
+      <c r="C24" s="74">
         <v>37</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="73" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="42"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="45"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="69"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="42"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
       <c r="H25" s="45"/>
       <c r="I25" s="1"/>
     </row>
@@ -26596,8 +26599,8 @@
       <c r="C26" s="65"/>
       <c r="D26" s="65"/>
       <c r="E26" s="42"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="45"/>
       <c r="I26" s="1"/>
     </row>
@@ -26606,8 +26609,8 @@
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
       <c r="E27" s="43"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="45"/>
       <c r="I27" s="1"/>
     </row>
@@ -26616,30 +26619,30 @@
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="43"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="45"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="43"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="45"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
       <c r="E30" s="43"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="45"/>
       <c r="I30" s="1"/>
     </row>
@@ -26648,19 +26651,13 @@
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="42"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="45"/>
       <c r="I31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="B16:D17"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C18:C19"/>
     <mergeCell ref="B26:D27"/>
     <mergeCell ref="F7:G31"/>
     <mergeCell ref="B29:D30"/>
@@ -26670,6 +26667,12 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D22:D23"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="B16:D17"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="G3" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -26692,8 +26695,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -26710,14 +26713,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="str">
+      <c r="A1" s="66" t="str">
         <f>"Recipe: "&amp;RecipeName</f>
         <v>Recipe: Empty Recipe 1</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -26741,12 +26744,14 @@
         <v>75</v>
       </c>
       <c r="F3" s="75"/>
-      <c r="G3" s="48"/>
+      <c r="G3" s="48" t="s">
+        <v>82</v>
+      </c>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
     </row>
@@ -26771,28 +26776,28 @@
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="42"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="45"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="42"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="45"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="42"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
       <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="42"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="45"/>
       <c r="I10" s="65" t="s">
         <v>37</v>
@@ -26800,36 +26805,36 @@
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="42"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="45"/>
       <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="42"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="45"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="42"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="45"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="42"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="45"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="42"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
       <c r="H15" s="45"/>
       <c r="I15" s="1"/>
     </row>
@@ -26840,8 +26845,8 @@
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="45"/>
       <c r="I16" s="1"/>
     </row>
@@ -26850,104 +26855,104 @@
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
       <c r="E17" s="42"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="45"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="69" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="42"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="45"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="71"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="45"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="73" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="42"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="45"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="69"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="42"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="45"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="69" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="42"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="45"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="26"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="71"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="42"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="45"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="26"/>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="73" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="42"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="45"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="69"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="42"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
       <c r="H25" s="45"/>
       <c r="I25" s="1"/>
     </row>
@@ -26958,8 +26963,8 @@
       <c r="C26" s="65"/>
       <c r="D26" s="65"/>
       <c r="E26" s="42"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="45"/>
       <c r="I26" s="1"/>
     </row>
@@ -26968,8 +26973,8 @@
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
       <c r="E27" s="43"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="45"/>
       <c r="I27" s="1"/>
     </row>
@@ -26978,28 +26983,28 @@
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="43"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="45"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="43"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="45"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
       <c r="E30" s="43"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="45"/>
       <c r="I30" s="1"/>
     </row>
@@ -27008,8 +27013,8 @@
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="42"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="45"/>
       <c r="I31" s="1"/>
     </row>
@@ -27070,14 +27075,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="str">
+      <c r="A1" s="66" t="str">
         <f>"Recipe: "&amp;RecipeName</f>
         <v>Recipe: Empty Recipe 2</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -27105,8 +27110,8 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
     </row>
@@ -27131,28 +27136,28 @@
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="42"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="45"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="42"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="45"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="42"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
       <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="42"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="45"/>
       <c r="I10" s="65" t="s">
         <v>37</v>
@@ -27160,36 +27165,36 @@
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="42"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="45"/>
       <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="42"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="45"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="42"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="45"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="42"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="45"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="42"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
       <c r="H15" s="45"/>
       <c r="I15" s="1"/>
     </row>
@@ -27200,8 +27205,8 @@
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="45"/>
       <c r="I16" s="1"/>
     </row>
@@ -27210,104 +27215,104 @@
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
       <c r="E17" s="42"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="45"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="69" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="42"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="45"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="71"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="45"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="73" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="42"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="45"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="69"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="42"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="45"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="69" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="42"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="45"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="26"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="71"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="42"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="45"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="26"/>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="73" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="42"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="45"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="69"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="42"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
       <c r="H25" s="45"/>
       <c r="I25" s="1"/>
     </row>
@@ -27318,8 +27323,8 @@
       <c r="C26" s="65"/>
       <c r="D26" s="65"/>
       <c r="E26" s="42"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="45"/>
       <c r="I26" s="1"/>
     </row>
@@ -27328,8 +27333,8 @@
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
       <c r="E27" s="43"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="45"/>
       <c r="I27" s="1"/>
     </row>
@@ -27338,28 +27343,28 @@
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="43"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="45"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="43"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="45"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
       <c r="E30" s="43"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="45"/>
       <c r="I30" s="1"/>
     </row>
@@ -27368,8 +27373,8 @@
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="42"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="45"/>
       <c r="I31" s="1"/>
     </row>
@@ -27430,14 +27435,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="str">
+      <c r="A1" s="66" t="str">
         <f>"Recipe: "&amp;RecipeName</f>
         <v>Recipe: Empty Recipe 3</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -27465,8 +27470,8 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
     </row>
@@ -27491,28 +27496,28 @@
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="42"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="45"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="42"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="45"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="42"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
       <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="42"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="45"/>
       <c r="I10" s="65" t="s">
         <v>37</v>
@@ -27520,36 +27525,36 @@
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="42"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="45"/>
       <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="42"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="45"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="42"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="45"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="42"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="45"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="42"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
       <c r="H15" s="45"/>
       <c r="I15" s="1"/>
     </row>
@@ -27560,8 +27565,8 @@
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="45"/>
       <c r="I16" s="1"/>
     </row>
@@ -27570,104 +27575,104 @@
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
       <c r="E17" s="42"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="45"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="69" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="42"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="45"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="71"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="45"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="73" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="42"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="45"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="69"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="42"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="45"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="69" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="42"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="45"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="26"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="71"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="42"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="45"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="26"/>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="73" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="42"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="45"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="69"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="42"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
       <c r="H25" s="45"/>
       <c r="I25" s="1"/>
     </row>
@@ -27678,8 +27683,8 @@
       <c r="C26" s="65"/>
       <c r="D26" s="65"/>
       <c r="E26" s="42"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="45"/>
       <c r="I26" s="1"/>
     </row>
@@ -27688,8 +27693,8 @@
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
       <c r="E27" s="43"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="45"/>
       <c r="I27" s="1"/>
     </row>
@@ -27698,28 +27703,28 @@
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="43"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="45"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="43"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="45"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
       <c r="E30" s="43"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="45"/>
       <c r="I30" s="1"/>
     </row>
@@ -27728,8 +27733,8 @@
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="42"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="45"/>
       <c r="I31" s="1"/>
     </row>
@@ -27790,14 +27795,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="str">
+      <c r="A1" s="66" t="str">
         <f>"Recipe: "&amp;RecipeName</f>
         <v>Recipe: Empty Recipe 4</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -27825,8 +27830,8 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
     </row>
@@ -27851,28 +27856,28 @@
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="42"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="45"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="42"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="45"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="42"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
       <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="42"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="45"/>
       <c r="I10" s="65" t="s">
         <v>37</v>
@@ -27880,36 +27885,36 @@
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="42"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="45"/>
       <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="42"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="45"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="42"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="45"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="42"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="45"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="42"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
       <c r="H15" s="45"/>
       <c r="I15" s="1"/>
     </row>
@@ -27920,8 +27925,8 @@
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="45"/>
       <c r="I16" s="1"/>
     </row>
@@ -27930,104 +27935,104 @@
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
       <c r="E17" s="42"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="45"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="69" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="42"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="45"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="71"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="45"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="73" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="42"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="45"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="69"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="42"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="45"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="69" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="42"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="45"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="26"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="71"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="42"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="45"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="26"/>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="73" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="42"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="45"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="69"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="42"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
       <c r="H25" s="45"/>
       <c r="I25" s="1"/>
     </row>
@@ -28038,8 +28043,8 @@
       <c r="C26" s="65"/>
       <c r="D26" s="65"/>
       <c r="E26" s="42"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="45"/>
       <c r="I26" s="1"/>
     </row>
@@ -28048,8 +28053,8 @@
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
       <c r="E27" s="43"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="45"/>
       <c r="I27" s="1"/>
     </row>
@@ -28058,28 +28063,28 @@
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="43"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="45"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="43"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="45"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
       <c r="E30" s="43"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="45"/>
       <c r="I30" s="1"/>
     </row>
@@ -28088,8 +28093,8 @@
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="42"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="45"/>
       <c r="I31" s="1"/>
     </row>
@@ -28150,14 +28155,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="str">
+      <c r="A1" s="66" t="str">
         <f>"Recipe: "&amp;RecipeName</f>
         <v>Recipe: Empty Recipe 5</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -28185,8 +28190,8 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
     </row>
@@ -28211,28 +28216,28 @@
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="42"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="45"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="42"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="45"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="42"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
       <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="42"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="45"/>
       <c r="I10" s="65" t="s">
         <v>37</v>
@@ -28240,36 +28245,36 @@
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="42"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="45"/>
       <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="42"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="45"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="42"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="45"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="42"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="45"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="42"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
       <c r="H15" s="45"/>
       <c r="I15" s="1"/>
     </row>
@@ -28280,8 +28285,8 @@
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="45"/>
       <c r="I16" s="1"/>
     </row>
@@ -28290,104 +28295,104 @@
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
       <c r="E17" s="42"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="45"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="69" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="42"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="45"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="71"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="45"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="73" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="42"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="45"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="69"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="42"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="45"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="69" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="42"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="45"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="26"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="71"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="42"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="45"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="26"/>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="73" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="42"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="45"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="69"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="42"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
       <c r="H25" s="45"/>
       <c r="I25" s="1"/>
     </row>
@@ -28398,8 +28403,8 @@
       <c r="C26" s="65"/>
       <c r="D26" s="65"/>
       <c r="E26" s="42"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="45"/>
       <c r="I26" s="1"/>
     </row>
@@ -28408,8 +28413,8 @@
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
       <c r="E27" s="43"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="45"/>
       <c r="I27" s="1"/>
     </row>
@@ -28418,28 +28423,28 @@
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="43"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="45"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="43"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="45"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
       <c r="E30" s="43"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="45"/>
       <c r="I30" s="1"/>
     </row>
@@ -28448,8 +28453,8 @@
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="42"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="45"/>
       <c r="I31" s="1"/>
     </row>
